--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -1,29 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrir\Desktop\work\anatomy_detection\analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BFD60D-DFCA-4395-8BD4-37824DA65E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+  <si>
+    <t>Pickle File Name</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>List of Augmentations</t>
+  </si>
+  <si>
+    <t>Optimizer Used</t>
+  </si>
+  <si>
+    <t>Initial LR</t>
+  </si>
+  <si>
+    <t>LR decay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 </t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>Loss Graph</t>
+  </si>
+  <si>
+    <t>Other comments</t>
+  </si>
+  <si>
+    <t>Number of epochs</t>
+  </si>
+  <si>
+    <t>EfficientNet</t>
+  </si>
+  <si>
+    <t>Num Trainable 
+Layers</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Shift, rotate, flip, shear, zoom</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Flip</t>
+  </si>
+  <si>
+    <t>Shift, rotate, flip, shear, zoom, brightness</t>
+  </si>
+  <si>
+    <t>RMSprop, epsilon = 1e-7</t>
+  </si>
+  <si>
+    <t>0.94 every 2 epochs</t>
+  </si>
+  <si>
+    <t>RMSprop, epsilon = 1</t>
+  </si>
+  <si>
+    <t>Original Cogan config</t>
+  </si>
+  <si>
+    <t>Batch 
+Size</t>
+  </si>
+  <si>
+    <t>Conf Matrix 
+Acc</t>
+  </si>
+  <si>
+    <t>Custom Pre
+processing Used?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +162,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +461,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="11.6328125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="18.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>305</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>32</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>306</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <v>32</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>307</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>32</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>280</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>281</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1">
+        <v>32</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>282</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>164</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>165</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="1">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>166</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrir\Desktop\work\anatomy_detection\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BFD60D-DFCA-4395-8BD4-37824DA65E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC98B89-6239-437C-AC1A-A92121716CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
-  <si>
-    <t>Pickle File Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>Neural Network</t>
   </si>
@@ -113,13 +110,16 @@
   <si>
     <t>Custom Pre
 processing Used?</t>
+  </si>
+  <si>
+    <t>loss_graph.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,8 +167,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,14 +185,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,6 +207,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,293 +497,325 @@
     <col min="10" max="11" width="8.7265625" style="1"/>
     <col min="12" max="12" width="11.6328125" style="1" customWidth="1"/>
     <col min="13" max="14" width="18.08984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
         <v>0.01</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>32</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K3" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L3" s="1">
+        <v>97</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>306</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>0.01</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>32</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K5" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L5" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>307</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>0.01</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <v>32</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L7" s="1">
+        <v>97.16</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>280</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
         <v>0.01</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1">
         <v>32</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L9" s="1">
+        <v>97.45</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>281</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1">
         <v>0.01</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
         <v>32</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L11" s="1">
+        <v>96.89</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>282</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1">
         <v>0.01</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1">
         <v>32</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13" s="1">
+        <v>97.09</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>160</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1">
         <v>0.01</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1">
         <v>16</v>
@@ -779,31 +826,37 @@
       <c r="K15" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="1">
+        <v>98.39</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>161</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1">
         <v>0.01</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1">
         <v>16</v>
@@ -814,31 +867,37 @@
       <c r="K17" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="1">
+        <v>98.23</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1">
         <v>0.01</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1">
         <v>16</v>
@@ -849,31 +908,37 @@
       <c r="K19" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="1">
+        <v>98.16</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>163</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="1">
         <v>0.01</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1">
         <v>16</v>
@@ -884,31 +949,37 @@
       <c r="K21" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="1">
+        <v>98.41</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1">
         <v>0.01</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
         <v>16</v>
@@ -919,31 +990,37 @@
       <c r="K23" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="1">
+        <v>98.14</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1">
         <v>0.01</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1">
         <v>16</v>
@@ -954,31 +1031,37 @@
       <c r="K25" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="1">
+        <v>97.78</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1">
         <v>0.01</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1">
         <v>16</v>
@@ -992,6 +1075,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" display="..\graphs\train_metrics_305epochs_efficientnet_eight_class\loss_graph.jpg" xr:uid="{D9F47676-C989-4D89-B696-6DCA9F23253B}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{9D597DEE-5A3F-47C3-BDE8-5882D6B47393}"/>
+    <hyperlink ref="M7" r:id="rId3" xr:uid="{50D49B0E-A44D-41F4-BB49-EA22DE11B4D3}"/>
+    <hyperlink ref="M9" r:id="rId4" display="..\graphs\train_metrics_280epochs_efficientnet_reduced_aug\loss_graph.jpg" xr:uid="{5374A983-4A8D-41EB-BF63-3F2BA7F11C79}"/>
+    <hyperlink ref="M11" r:id="rId5" display="..\graphs\train_metrics_281epochs_efficientnet_reduced_aug_custom\loss_graph.jpg" xr:uid="{C169B527-FF52-4F28-83A1-8A33DAA1E2A5}"/>
+    <hyperlink ref="M13" r:id="rId6" display="..\graphs\train_metrics_282epochs_efficientnet_original\loss_graph.jpg" xr:uid="{DCE931DA-96E9-4996-8DFD-FA20010AD358}"/>
+    <hyperlink ref="M15" r:id="rId7" display="..\graphs\train_metrics_160epochs_efficientnet_100_normal_augs_bs16\loss_graph.jpg" xr:uid="{F92456DB-8D49-451B-907E-2AE9A0F2CABB}"/>
+    <hyperlink ref="M17" r:id="rId8" display="..\graphs\train_metrics_161epochs_efficientnet_smooth_cpp\loss_graph.jpg" xr:uid="{24D28F17-A5C3-4B0D-A32E-FBF04E3515AE}"/>
+    <hyperlink ref="M19" r:id="rId9" display="..\graphs\train_metrics_162epochs_efficientnet_new\loss_graph.jpg" xr:uid="{B1A76426-7B51-4ACB-8C0C-532FAE852DB4}"/>
+    <hyperlink ref="M21" r:id="rId10" display="..\graphs\train_metrics_163epochs_efficientnet_new\loss_graph.jpg" xr:uid="{813FF69B-9736-495F-AB05-926DA7F0C64A}"/>
+    <hyperlink ref="M23" r:id="rId11" display="..\graphs\train_metrics_164epochs_efficientnet_new\loss_graph.jpg" xr:uid="{C2646613-C34E-48FE-A454-E1A590EBF546}"/>
+    <hyperlink ref="M25" r:id="rId12" display="..\graphs\train_metrics_165epochs_efficientnet_new\loss_graph.jpg" xr:uid="{9F86B5B0-D3D0-48DF-AC03-3111EA599559}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrir\Desktop\work\anatomy_detection\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC98B89-6239-437C-AC1A-A92121716CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D3A4FA-1448-44FA-A275-563B07000400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>Neural Network</t>
   </si>
@@ -207,10 +207,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,6 +1068,53 @@
       <c r="K27" s="1">
         <v>0.2</v>
       </c>
+      <c r="L27" s="1">
+        <v>96.15</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>167</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>96.62</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1088,6 +1131,8 @@
     <hyperlink ref="M21" r:id="rId10" display="..\graphs\train_metrics_163epochs_efficientnet_new\loss_graph.jpg" xr:uid="{813FF69B-9736-495F-AB05-926DA7F0C64A}"/>
     <hyperlink ref="M23" r:id="rId11" display="..\graphs\train_metrics_164epochs_efficientnet_new\loss_graph.jpg" xr:uid="{C2646613-C34E-48FE-A454-E1A590EBF546}"/>
     <hyperlink ref="M25" r:id="rId12" display="..\graphs\train_metrics_165epochs_efficientnet_new\loss_graph.jpg" xr:uid="{9F86B5B0-D3D0-48DF-AC03-3111EA599559}"/>
+    <hyperlink ref="M27" r:id="rId13" xr:uid="{E17A055E-FA17-4CC8-BA64-D0B07ABE1157}"/>
+    <hyperlink ref="M29" r:id="rId14" xr:uid="{5DBFB2FB-FFDA-4860-B990-75DB6935FF1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csrir\Desktop\work\anatomy_detection\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D3A4FA-1448-44FA-A275-563B07000400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257486E7-C403-4B32-AE40-E8F752C32981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>Neural Network</t>
   </si>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,6 +1116,88 @@
         <v>24</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>168</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>250</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>98.41</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>169</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>250</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>98.21</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1133,6 +1215,8 @@
     <hyperlink ref="M25" r:id="rId12" display="..\graphs\train_metrics_165epochs_efficientnet_new\loss_graph.jpg" xr:uid="{9F86B5B0-D3D0-48DF-AC03-3111EA599559}"/>
     <hyperlink ref="M27" r:id="rId13" xr:uid="{E17A055E-FA17-4CC8-BA64-D0B07ABE1157}"/>
     <hyperlink ref="M29" r:id="rId14" xr:uid="{5DBFB2FB-FFDA-4860-B990-75DB6935FF1C}"/>
+    <hyperlink ref="M31" r:id="rId15" xr:uid="{7EE582FC-C380-48E5-B0DC-A4232DC3DFDA}"/>
+    <hyperlink ref="M33" r:id="rId16" xr:uid="{0483C90F-2D25-4D16-B1E8-D74E9E955E8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
